--- a/biology/Zoologie/Adelpha_corcyra/Adelpha_corcyra.xlsx
+++ b/biology/Zoologie/Adelpha_corcyra/Adelpha_corcyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha corcyra  est une espèce de papillons de la famille des Nymphalidae, sous famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adelpha corcyra a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa corcyra[1].
-Sous-espèces
-Adelpha corcyra corcyra;
-Adelpha corcyra aretina Fruhstorfer, 1907; présent en Équateur.
-Adelpha corcyra collina (Hewitson, 1847); présent en Équateur et en Colombie.
-Adelpha corcyra dognini Willmott, 2003; présent en Équateur.
-Adelpha corcyra salazari Willmott, 2003; présent en Colombie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha corcyra a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa corcyra.
+</t>
         </is>
       </c>
     </row>
@@ -544,14 +553,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha  corcyra est un papillon d'une envergure d'environ  45 mm, à bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une bande blanche dans l'aire discale des ailes postérieures se continuant sur les 2/3 de l'aire discale aux ailes antérieures antérieures chevauchée par une courte ligne submarginale de taches de couleur jaune orangé[2].
-Le revers est marbré de beige et d ejaune orangé avec les bandes blanche et orange que sur le dessus.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha corcyra corcyra;
+Adelpha corcyra aretina Fruhstorfer, 1907; présent en Équateur.
+Adelpha corcyra collina (Hewitson, 1847); présent en Équateur et en Colombie.
+Adelpha corcyra dognini Willmott, 2003; présent en Équateur.
+Adelpha corcyra salazari Willmott, 2003; présent en Colombie.</t>
         </is>
       </c>
     </row>
@@ -576,12 +593,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha  corcyra est un papillon d'une envergure d'environ  45 mm, à bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une bande blanche dans l'aire discale des ailes postérieures se continuant sur les 2/3 de l'aire discale aux ailes antérieures antérieures chevauchée par une courte ligne submarginale de taches de couleur jaune orangé.
+Le revers est marbré de beige et d ejaune orangé avec les bandes blanche et orange que sur le dessus.
+</t>
         </is>
       </c>
     </row>
@@ -609,12 +630,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha corcyra est présent  en Colombie, en Équateur et dans le nord du Pérou[1],[2]. 
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha corcyra est présent  en Colombie, en Équateur et dans le nord du Pérou,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_corcyra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_corcyra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
